--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_AppropriationNumberProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_AppropriationNumberProfile_AddNewProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3AB5C8-0AB3-41CF-B157-4E7D1A40FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC105E1D-8C96-4DF4-8F8D-2DD7F2043244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,7 +860,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_AppropriationNumberProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_AppropriationNumberProfile_AddNewProfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC105E1D-8C96-4DF4-8F8D-2DD7F2043244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37B6532-E136-495C-9526-B5C0E8346C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="145">
   <si>
     <t>Keyword</t>
   </si>
@@ -378,15 +378,9 @@
     <t>NAN06</t>
   </si>
   <si>
-    <t xml:space="preserve"> J02 - J02 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 - REVERTING APPROPRIATION </t>
   </si>
   <si>
-    <t xml:space="preserve"> 12 - OPERATING SAVE </t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -475,6 +469,9 @@
   </si>
   <si>
     <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>J02</t>
   </si>
 </sst>
 </file>
@@ -859,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26C6594-F41F-4B2F-ABA3-A13A10EE861F}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,10 +906,10 @@
     </row>
     <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -921,10 +918,10 @@
     </row>
     <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1062,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -1092,10 +1089,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -1106,7 +1103,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -1326,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09BD079-C09A-4699-A8CB-21F9568AA99B}">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1388,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>110</v>
@@ -1424,7 +1421,7 @@
         <v>103</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>102</v>
@@ -1495,7 +1492,7 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="G2">
         <v>2023</v>
@@ -1504,10 +1501,10 @@
         <v>30</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="L2">
+        <v>45</v>
       </c>
       <c r="M2">
         <v>11</v>
@@ -1516,70 +1513,70 @@
         <v>9999</v>
       </c>
       <c r="O2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T2" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" t="s">
         <v>116</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" t="s">
-        <v>137</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X2" t="s">
         <v>117</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>118</v>
       </c>
-      <c r="W2" t="s">
-        <v>117</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>119</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>121</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD2" t="s">
         <v>122</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>124</v>
       </c>
       <c r="AE2">
         <v>33</v>
       </c>
       <c r="AF2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI2" t="s">
         <v>125</v>
       </c>
-      <c r="AG2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>126</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1647,10 +1644,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1669,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
